--- a/similarities/split_global/harmonic_similarity_timestamps_77.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_77.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,682 +484,734 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
+          <t>schubert-winterreise_193</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>schubert-winterreise_197</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj/A#', 'A#:7', 'D#:maj'], ['D#:maj', 'C:min/G', 'G:7', 'C:min']]</t>
+          <t>['C', 'C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['A#:7/F', 'D#/G', 'A#:7', 'D#'], ['D#/G', 'C:min/G', 'G:7', 'C:min']]</t>
+          <t>['F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:45.240000', '0:02:00.100000'), ('0:01:55.700000', '0:02:10.980000')]</t>
+          <t>('0:04:10.300000', '0:04:17.660000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:46.960000', '0:00:50.740000'), ('0:01:12.680000', '0:01:18.700000')]</t>
+          <t>('0:00:19.200000', '0:00:21.840000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-71#t=105.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-71#t=115.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=250.3</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=46.96', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=72.68']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=19.2</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_151</t>
+          <t>schubert-winterreise_3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>schubert-winterreise_73</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
+          <t>['C#:maj', 'G#:7', 'C#:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:57.540000', '0:02:01.800000')]</t>
+          <t>('0:00:00.480000', '0:00:08.480000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:54.180000', '0:01:01.460000')]</t>
+          <t>('0:01:06.920000', '0:01:08.180000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-151#t=117.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=0.48</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=54.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=66.92</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_54</t>
+          <t>isophonics_45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
+          <t>isophonics_165</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['F/3', 'Bb', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['A', 'D', 'E', 'A']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:22.370000', '0:00:40.370000')]</t>
+          <t>('0:01:03.461000', '0:01:06.732000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:03:46.620000', '0:03:52.800000')]</t>
+          <t>('0:00:20.567641', '0:00:27.754217')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-54#t=22.37']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=63.461</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=226.62']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-165#t=20.567641</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_75</t>
+          <t>isophonics_296</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_87</t>
+          <t>jaah_52</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min']]</t>
+          <t>['G:maj', 'C:maj', 'G/3']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['F:min', 'C', 'F:min', 'C', 'F:min']]</t>
+          <t>['F', 'Bb', 'F']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:45.720000', '0:00:52.880000')]</t>
+          <t>('0:00:05.146000', '0:00:09.474000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:00.600000', '0:00:08.740000')]</t>
+          <t>('0:01:02.530000', '0:01:09.910000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-75#t=45.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=5.146</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-87#t=0.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=62.53</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_107</t>
+          <t>schubert-winterreise_80</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_148</t>
+          <t>schubert-winterreise_94</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'B:7']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'D:7']]</t>
+          <t>['A#:min/F', 'F:7', 'A#:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:44.354195', '0:01:53.665396')]</t>
+          <t>('0:02:10.840000', '0:02:15.980000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:06.600000', '0:00:14.640000')]</t>
+          <t>('0:01:24.620000', '0:01:31.740000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-107#t=104.354195']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=130.84</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-148#t=6.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=84.62</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_15</t>
+          <t>isophonics_43</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_189</t>
+          <t>schubert-winterreise_104</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C']]</t>
+          <t>['B', 'E', 'B', 'E']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['G:maj', 'C:maj', 'G:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:04.514625', '0:01:27.246961')]</t>
+          <t>('0:00:00.459543', '0:00:13.717755')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:56.720000', '0:00:58.880000')]</t>
+          <t>('0:00:09.280000', '0:00:11.680000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-15#t=64.514625']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-43#t=0.459543</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=56.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=9.28</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>schubert-winterreise_134</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_50</t>
+          <t>isophonics_47</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:maj', 'A#:maj'], ['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C'], ['G', 'C', 'G']]</t>
+          <t>['A', 'D', 'A', 'D']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:02:06.040000', '0:02:07.180000'), ('0:02:03.220000', '0:02:06.880000')]</t>
+          <t>('0:02:22.140000', '0:02:27.860000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:58.300068', '0:01:03.443287'), ('0:00:37.936167', '0:00:42.951678')]</t>
+          <t>('0:00:01.302038', '0:00:06.740158')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=126.04', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=123.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-134#t=142.14</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-50#t=58.300068', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-50#t=37.936167']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-47#t=1.302038</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_72</t>
+          <t>isophonics_159</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['D/5', 'A', 'D', 'A/3']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['A#:maj', 'F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:00.380000', '0:00:08.900000')]</t>
+          <t>('0:00:12.743000', '0:00:17.058000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:32.080000', '0:00:41.940000')]</t>
+          <t>('0:01:47.640000', '0:01:48.840000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=0.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=12.743</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=32.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=107.64</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
+          <t>jaah_73</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_280</t>
+          <t>schubert-winterreise_73</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:00.760000', '0:01:04.360000')]</t>
+          <t>('0:00:19.130000', '0:00:20.830000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:03.389127', '0:00:22.035759')]</t>
+          <t>('0:01:06.920000', '0:01:08.180000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=60.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=19.13</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-280#t=3.389127']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=66.92</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_66</t>
+          <t>schubert-winterreise_173</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_104</t>
+          <t>jaah_21</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab', 'Eb:7'], ['Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['G:maj/B', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7'], ['G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:22.770000', '0:00:31.750000'), ('0:00:55.230000', '0:01:05.420000')]</t>
+          <t>('0:00:17.160000', '0:00:19.520000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:00.240000', '0:00:08.720000'), ('0:00:07', '0:00:09.280000')]</t>
+          <t>('0:00:46.750000', '0:00:47.790000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=22.77', 'https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=55.23']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=17.16</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=0.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=7.0']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=46.75</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_158</t>
+          <t>schubert-winterreise_187</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_275</t>
+          <t>schubert-winterreise_2</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:15.520000', '0:01:19.700000')]</t>
+          <t>('0:03:56.400000', '0:04:02.100000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:08.158789', '0:00:22.589990')]</t>
+          <t>('0:00:20.560000', '0:00:23.940000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=75.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=236.4</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-275#t=8.158789']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-2#t=20.56</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>schubert-winterreise_3</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_128</t>
+          <t>schubert-winterreise_82</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['G#:7', 'C#:maj', 'G#:maj', 'C#:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C']]</t>
+          <t>['D:7', 'G:maj', 'D:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:54.180000', '0:01:01.460000')]</t>
+          <t>('0:00:08.480000', '0:00:10.780000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:10.634761', '0:00:15.986961')]</t>
+          <t>('0:00:44.160000', '0:00:47.280000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=54.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=8.48</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-128#t=10.634761']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=44.16</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_139</t>
+          <t>isophonics_160</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>isophonics_287</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:maj', 'D#:min'], ['D#:min/A#', 'A#:7', 'D#:min'], ['F#:maj', 'C#:7/F', 'F#:maj']]</t>
+          <t>['Eb:maj', 'Db:maj', 'Ab:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:maj', 'A#:min'], ['A#:min/F', 'F:7', 'A#:min'], ['C#:maj/F', 'G#:7', 'C#:maj']]</t>
+          <t>['E', 'D', 'A']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:01.260000', '0:00:05.920000'), ('0:01:56.660000', '0:02:01.420000'), ('0:00:34.380000', '0:00:38.520000')]</t>
+          <t>('0:00:45.887000', '0:00:51.649000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:15.600000', '0:00:24.080000'), ('0:01:24.620000', '0:01:31.740000'), ('0:00:41.320000', '0:00:46.640000')]</t>
+          <t>('0:01:16.300702', '0:01:21.607119')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=1.26', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=116.66', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=34.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=45.887</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=15.6', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=84.62', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=41.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-287#t=76.300702</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>schubert-winterreise_124</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_41</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>['F:min', 'F#/A#', 'F:min/C']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min']]</t>
+          <t>['G:min', 'G#:maj/C', 'G:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:01:29.080000', '0:01:38.100000')]</t>
+          <t>('0:03:02.640000', '0:03:04.840000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:11.160000', '0:00:16.300000')]</t>
+          <t>('0:00:49.260000', '0:00:52.760000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=89.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-124#t=182.64</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-41#t=11.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=49.26</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>schubert-winterreise_151</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>isophonics_53</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
+          <t>['C:maj/G', 'F:maj', 'C:maj/G']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:03:50.780000', '0:04:06.860000')]</t>
+          <t>('0:01:57.540000', '0:02:01.800000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:19.360000', '0:00:23.020000')]</t>
+          <t>('0:00:40.490000', '0:00:47.860000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=230.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-151#t=117.54</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=19.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=40.49</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
